--- a/natmiOut/YoungD2/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H2">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>168.957638394185</v>
+        <v>0.1007803333333333</v>
       </c>
       <c r="N2">
-        <v>168.957638394185</v>
+        <v>0.302341</v>
       </c>
       <c r="O2">
-        <v>0.4144945736454198</v>
+        <v>0.0002403678834108732</v>
       </c>
       <c r="P2">
-        <v>0.4144945736454198</v>
+        <v>0.0002403678834108732</v>
       </c>
       <c r="Q2">
-        <v>33.16377479970808</v>
+        <v>0.0633949280668889</v>
       </c>
       <c r="R2">
-        <v>33.16377479970808</v>
+        <v>0.570554352602</v>
       </c>
       <c r="S2">
-        <v>0.0003410413870373781</v>
+        <v>5.811654250917441E-07</v>
       </c>
       <c r="T2">
-        <v>0.0003410413870373781</v>
+        <v>5.811654250917442E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H3">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>190.742850569929</v>
+        <v>0.03723833333333333</v>
       </c>
       <c r="N3">
-        <v>190.742850569929</v>
+        <v>0.111715</v>
       </c>
       <c r="O3">
-        <v>0.4679390483574361</v>
+        <v>8.881593331782885E-05</v>
       </c>
       <c r="P3">
-        <v>0.4679390483574361</v>
+        <v>8.881593331782886E-05</v>
       </c>
       <c r="Q3">
-        <v>37.43987546865006</v>
+        <v>0.02342442602555556</v>
       </c>
       <c r="R3">
-        <v>37.43987546865006</v>
+        <v>0.21081983423</v>
       </c>
       <c r="S3">
-        <v>0.0003850148886081423</v>
+        <v>2.147406255325086E-07</v>
       </c>
       <c r="T3">
-        <v>0.0003850148886081423</v>
+        <v>2.147406255325086E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H4">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.6942095581033</v>
+        <v>179.0399246666667</v>
       </c>
       <c r="N4">
-        <v>47.6942095581033</v>
+        <v>537.119774</v>
       </c>
       <c r="O4">
-        <v>0.1170056071097507</v>
+        <v>0.4270222801886167</v>
       </c>
       <c r="P4">
-        <v>0.1170056071097507</v>
+        <v>0.4270222801886167</v>
       </c>
       <c r="Q4">
-        <v>9.36163668046073</v>
+        <v>112.6233935722698</v>
       </c>
       <c r="R4">
-        <v>9.36163668046073</v>
+        <v>1013.610542150428</v>
       </c>
       <c r="S4">
-        <v>9.627087319602795E-05</v>
+        <v>0.001032461498049856</v>
       </c>
       <c r="T4">
-        <v>9.627087319602795E-05</v>
+        <v>0.001032461498049856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H5">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I5">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J5">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.228583269452522</v>
+        <v>190.7767536666667</v>
       </c>
       <c r="N5">
-        <v>0.228583269452522</v>
+        <v>572.3302610000001</v>
       </c>
       <c r="O5">
-        <v>0.0005607708873933935</v>
+        <v>0.455015407928672</v>
       </c>
       <c r="P5">
-        <v>0.0005607708873933935</v>
+        <v>0.4550154079286721</v>
       </c>
       <c r="Q5">
-        <v>0.04486736523517443</v>
+        <v>120.0063363109825</v>
       </c>
       <c r="R5">
-        <v>0.04486736523517443</v>
+        <v>1080.057026798842</v>
       </c>
       <c r="S5">
-        <v>4.613958623507243E-07</v>
+        <v>0.001100143743081269</v>
       </c>
       <c r="T5">
-        <v>4.613958623507243E-07</v>
+        <v>0.001100143743081269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0008696479444</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H6">
-        <v>80.0008696479444</v>
+        <v>1.887122</v>
       </c>
       <c r="I6">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J6">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>168.957638394185</v>
+        <v>49.049056</v>
       </c>
       <c r="N6">
-        <v>168.957638394185</v>
+        <v>147.147168</v>
       </c>
       <c r="O6">
-        <v>0.4144945736454198</v>
+        <v>0.1169853024302498</v>
       </c>
       <c r="P6">
-        <v>0.4144945736454198</v>
+        <v>0.1169853024302498</v>
       </c>
       <c r="Q6">
-        <v>13516.75800519772</v>
+        <v>30.85385088561067</v>
       </c>
       <c r="R6">
-        <v>13516.75800519772</v>
+        <v>277.684657970496</v>
       </c>
       <c r="S6">
-        <v>0.1390002774467577</v>
+        <v>0.000282848989855052</v>
       </c>
       <c r="T6">
-        <v>0.1390002774467577</v>
+        <v>0.000282848989855052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0008696479444</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H7">
-        <v>80.0008696479444</v>
+        <v>1.887122</v>
       </c>
       <c r="I7">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J7">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>190.742850569929</v>
+        <v>0.2716173333333333</v>
       </c>
       <c r="N7">
-        <v>190.742850569929</v>
+        <v>0.814852</v>
       </c>
       <c r="O7">
-        <v>0.4679390483574361</v>
+        <v>0.000647825635732887</v>
       </c>
       <c r="P7">
-        <v>0.4679390483574361</v>
+        <v>0.0006478256357328872</v>
       </c>
       <c r="Q7">
-        <v>15259.59392472223</v>
+        <v>0.1708583484382222</v>
       </c>
       <c r="R7">
-        <v>15259.59392472223</v>
+        <v>1.537725135944</v>
       </c>
       <c r="S7">
-        <v>0.156922820431172</v>
+        <v>1.566323485623378E-06</v>
       </c>
       <c r="T7">
-        <v>0.156922820431172</v>
+        <v>1.566323485623379E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H8">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J8">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>47.6942095581033</v>
+        <v>0.1007803333333333</v>
       </c>
       <c r="N8">
-        <v>47.6942095581033</v>
+        <v>0.302341</v>
       </c>
       <c r="O8">
-        <v>0.1170056071097507</v>
+        <v>0.0002403678834108732</v>
       </c>
       <c r="P8">
-        <v>0.1170056071097507</v>
+        <v>0.0002403678834108732</v>
       </c>
       <c r="Q8">
-        <v>3815.578241819566</v>
+        <v>8.352553526981445</v>
       </c>
       <c r="R8">
-        <v>3815.578241819566</v>
+        <v>75.172981742833</v>
       </c>
       <c r="S8">
-        <v>0.0392376954613514</v>
+        <v>7.657103602969573E-05</v>
       </c>
       <c r="T8">
-        <v>0.0392376954613514</v>
+        <v>7.657103602969574E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H9">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J9">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.228583269452522</v>
+        <v>0.03723833333333333</v>
       </c>
       <c r="N9">
-        <v>0.228583269452522</v>
+        <v>0.111715</v>
       </c>
       <c r="O9">
-        <v>0.0005607708873933935</v>
+        <v>8.881593331782885E-05</v>
       </c>
       <c r="P9">
-        <v>0.0005607708873933935</v>
+        <v>8.881593331782886E-05</v>
       </c>
       <c r="Q9">
-        <v>18.28686034317216</v>
+        <v>3.086268542032778</v>
       </c>
       <c r="R9">
-        <v>18.28686034317216</v>
+        <v>27.776416878295</v>
       </c>
       <c r="S9">
-        <v>0.0001880538706362569</v>
+        <v>2.829299793960282E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001880538706362569</v>
+        <v>2.829299793960282E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H10">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J10">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>168.957638394185</v>
+        <v>179.0399246666667</v>
       </c>
       <c r="N10">
-        <v>168.957638394185</v>
+        <v>537.119774</v>
       </c>
       <c r="O10">
-        <v>0.4144945736454198</v>
+        <v>0.4270222801886167</v>
       </c>
       <c r="P10">
-        <v>0.4144945736454198</v>
+        <v>0.4270222801886167</v>
       </c>
       <c r="Q10">
-        <v>4681.120997975212</v>
+        <v>14838.61488430341</v>
       </c>
       <c r="R10">
-        <v>4681.120997975212</v>
+        <v>133547.5339587307</v>
       </c>
       <c r="S10">
-        <v>0.04813854899452866</v>
+        <v>0.1360312282066145</v>
       </c>
       <c r="T10">
-        <v>0.04813854899452866</v>
+        <v>0.1360312282066145</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H11">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J11">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>190.742850569929</v>
+        <v>190.7767536666667</v>
       </c>
       <c r="N11">
-        <v>190.742850569929</v>
+        <v>572.3302610000001</v>
       </c>
       <c r="O11">
-        <v>0.4679390483574361</v>
+        <v>0.455015407928672</v>
       </c>
       <c r="P11">
-        <v>0.4679390483574361</v>
+        <v>0.4550154079286721</v>
       </c>
       <c r="Q11">
-        <v>5284.69959395025</v>
+        <v>15811.3492384882</v>
       </c>
       <c r="R11">
-        <v>5284.69959395025</v>
+        <v>142302.1431463938</v>
       </c>
       <c r="S11">
-        <v>0.05434548058782884</v>
+        <v>0.1449486541220548</v>
       </c>
       <c r="T11">
-        <v>0.05434548058782884</v>
+        <v>0.1449486541220548</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H12">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I12">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J12">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.6942095581033</v>
+        <v>49.049056</v>
       </c>
       <c r="N12">
-        <v>47.6942095581033</v>
+        <v>147.147168</v>
       </c>
       <c r="O12">
-        <v>0.1170056071097507</v>
+        <v>0.1169853024302498</v>
       </c>
       <c r="P12">
-        <v>0.1170056071097507</v>
+        <v>0.1169853024302498</v>
       </c>
       <c r="Q12">
-        <v>1321.410313059581</v>
+        <v>4065.12711495871</v>
       </c>
       <c r="R12">
-        <v>1321.410313059581</v>
+        <v>36586.14403462839</v>
       </c>
       <c r="S12">
-        <v>0.01358879104483915</v>
+        <v>0.03726656689828931</v>
       </c>
       <c r="T12">
-        <v>0.01358879104483915</v>
+        <v>0.03726656689828932</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H13">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I13">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J13">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.228583269452522</v>
+        <v>0.2716173333333333</v>
       </c>
       <c r="N13">
-        <v>0.228583269452522</v>
+        <v>0.814852</v>
       </c>
       <c r="O13">
-        <v>0.0005607708873933935</v>
+        <v>0.000647825635732887</v>
       </c>
       <c r="P13">
-        <v>0.0005607708873933935</v>
+        <v>0.0006478256357328872</v>
       </c>
       <c r="Q13">
-        <v>6.333101909980611</v>
+        <v>22.51131982287511</v>
       </c>
       <c r="R13">
-        <v>6.333101909980611</v>
+        <v>202.601878405876</v>
       </c>
       <c r="S13">
-        <v>6.512677982748419E-05</v>
+        <v>0.0002063698335682875</v>
       </c>
       <c r="T13">
-        <v>6.512677982748419E-05</v>
+        <v>0.0002063698335682876</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H14">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I14">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J14">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>168.957638394185</v>
+        <v>0.1007803333333333</v>
       </c>
       <c r="N14">
-        <v>168.957638394185</v>
+        <v>0.302341</v>
       </c>
       <c r="O14">
-        <v>0.4144945736454198</v>
+        <v>0.0002403678834108732</v>
       </c>
       <c r="P14">
-        <v>0.4144945736454198</v>
+        <v>0.0002403678834108732</v>
       </c>
       <c r="Q14">
-        <v>5086.648563077556</v>
+        <v>4.134062619723112</v>
       </c>
       <c r="R14">
-        <v>5086.648563077556</v>
+        <v>37.20656357750801</v>
       </c>
       <c r="S14">
-        <v>0.05230881260654701</v>
+        <v>3.789852489795842E-05</v>
       </c>
       <c r="T14">
-        <v>0.05230881260654701</v>
+        <v>3.789852489795842E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H15">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I15">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J15">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>190.742850569929</v>
+        <v>0.03723833333333333</v>
       </c>
       <c r="N15">
-        <v>190.742850569929</v>
+        <v>0.111715</v>
       </c>
       <c r="O15">
-        <v>0.4679390483574361</v>
+        <v>8.881593331782885E-05</v>
       </c>
       <c r="P15">
-        <v>0.4679390483574361</v>
+        <v>8.881593331782886E-05</v>
       </c>
       <c r="Q15">
-        <v>5742.515437539632</v>
+        <v>1.527536144824444</v>
       </c>
       <c r="R15">
-        <v>5742.515437539632</v>
+        <v>13.74782530342</v>
       </c>
       <c r="S15">
-        <v>0.0590534534060131</v>
+        <v>1.400350501247077E-05</v>
       </c>
       <c r="T15">
-        <v>0.0590534534060131</v>
+        <v>1.400350501247077E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H16">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I16">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J16">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.6942095581033</v>
+        <v>179.0399246666667</v>
       </c>
       <c r="N16">
-        <v>47.6942095581033</v>
+        <v>537.119774</v>
       </c>
       <c r="O16">
-        <v>0.1170056071097507</v>
+        <v>0.4270222801886167</v>
       </c>
       <c r="P16">
-        <v>0.1170056071097507</v>
+        <v>0.4270222801886167</v>
       </c>
       <c r="Q16">
-        <v>1435.884668024548</v>
+        <v>7344.312481626791</v>
       </c>
       <c r="R16">
-        <v>1435.884668024548</v>
+        <v>66098.81233464112</v>
       </c>
       <c r="S16">
-        <v>0.01476599397283049</v>
+        <v>0.06732810676727535</v>
       </c>
       <c r="T16">
-        <v>0.01476599397283049</v>
+        <v>0.06732810676727537</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H17">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I17">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J17">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.228583269452522</v>
+        <v>190.7767536666667</v>
       </c>
       <c r="N17">
-        <v>0.228583269452522</v>
+        <v>572.3302610000001</v>
       </c>
       <c r="O17">
-        <v>0.0005607708873933935</v>
+        <v>0.455015407928672</v>
       </c>
       <c r="P17">
-        <v>0.0005607708873933935</v>
+        <v>0.4550154079286721</v>
       </c>
       <c r="Q17">
-        <v>6.881741306016372</v>
+        <v>7825.763419901608</v>
       </c>
       <c r="R17">
-        <v>6.881741306016372</v>
+        <v>70431.87077911447</v>
       </c>
       <c r="S17">
-        <v>7.076874132726594E-05</v>
+        <v>0.07174175069330173</v>
       </c>
       <c r="T17">
-        <v>7.076874132726594E-05</v>
+        <v>0.07174175069330174</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>100.160602978402</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H18">
-        <v>100.160602978402</v>
+        <v>123.061588</v>
       </c>
       <c r="I18">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J18">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>168.957638394185</v>
+        <v>49.049056</v>
       </c>
       <c r="N18">
-        <v>168.957638394185</v>
+        <v>147.147168</v>
       </c>
       <c r="O18">
-        <v>0.4144945736454198</v>
+        <v>0.1169853024302498</v>
       </c>
       <c r="P18">
-        <v>0.4144945736454198</v>
+        <v>0.1169853024302498</v>
       </c>
       <c r="Q18">
-        <v>16922.89893936837</v>
+        <v>2012.018240420309</v>
       </c>
       <c r="R18">
-        <v>16922.89893936837</v>
+        <v>18108.16416378278</v>
       </c>
       <c r="S18">
-        <v>0.1740275032571494</v>
+        <v>0.01844493671090613</v>
       </c>
       <c r="T18">
-        <v>0.1740275032571494</v>
+        <v>0.01844493671090613</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>100.160602978402</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H19">
-        <v>100.160602978402</v>
+        <v>123.061588</v>
       </c>
       <c r="I19">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J19">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>190.742850569929</v>
+        <v>0.2716173333333333</v>
       </c>
       <c r="N19">
-        <v>190.742850569929</v>
+        <v>0.814852</v>
       </c>
       <c r="O19">
-        <v>0.4679390483574361</v>
+        <v>0.000647825635732887</v>
       </c>
       <c r="P19">
-        <v>0.4679390483574361</v>
+        <v>0.0006478256357328872</v>
       </c>
       <c r="Q19">
-        <v>19104.91892690332</v>
+        <v>11.14188678944178</v>
       </c>
       <c r="R19">
-        <v>19104.91892690332</v>
+        <v>100.276981104976</v>
       </c>
       <c r="S19">
-        <v>0.1964664182355115</v>
+        <v>0.0001021419152882051</v>
       </c>
       <c r="T19">
-        <v>0.1964664182355115</v>
+        <v>0.0001021419152882051</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>100.160602978402</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H20">
-        <v>100.160602978402</v>
+        <v>90.484706</v>
       </c>
       <c r="I20">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J20">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>47.6942095581033</v>
+        <v>0.1007803333333333</v>
       </c>
       <c r="N20">
-        <v>47.6942095581033</v>
+        <v>0.302341</v>
       </c>
       <c r="O20">
-        <v>0.1170056071097507</v>
+        <v>0.0002403678834108732</v>
       </c>
       <c r="P20">
-        <v>0.1170056071097507</v>
+        <v>0.0002403678834108732</v>
       </c>
       <c r="Q20">
-        <v>4777.080787917891</v>
+        <v>3.039692944082889</v>
       </c>
       <c r="R20">
-        <v>4777.080787917891</v>
+        <v>27.357236496746</v>
       </c>
       <c r="S20">
-        <v>0.04912535643908272</v>
+        <v>2.786602171284713E-05</v>
       </c>
       <c r="T20">
-        <v>0.04912535643908272</v>
+        <v>2.786602171284713E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>100.160602978402</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H21">
-        <v>100.160602978402</v>
+        <v>90.484706</v>
       </c>
       <c r="I21">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J21">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.228583269452522</v>
+        <v>0.03723833333333333</v>
       </c>
       <c r="N21">
-        <v>0.228583269452522</v>
+        <v>0.111715</v>
       </c>
       <c r="O21">
-        <v>0.0005607708873933935</v>
+        <v>8.881593331782885E-05</v>
       </c>
       <c r="P21">
-        <v>0.0005607708873933935</v>
+        <v>8.881593331782886E-05</v>
       </c>
       <c r="Q21">
-        <v>22.89503809913914</v>
+        <v>1.123166547865555</v>
       </c>
       <c r="R21">
-        <v>22.89503809913914</v>
+        <v>10.10849893079</v>
       </c>
       <c r="S21">
-        <v>0.000235442304042927</v>
+        <v>1.029649506898077E-05</v>
       </c>
       <c r="T21">
-        <v>0.000235442304042927</v>
+        <v>1.029649506898077E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H22">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I22">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J22">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>168.957638394185</v>
+        <v>179.0399246666667</v>
       </c>
       <c r="N22">
-        <v>168.957638394185</v>
+        <v>537.119774</v>
       </c>
       <c r="O22">
-        <v>0.4144945736454198</v>
+        <v>0.4270222801886167</v>
       </c>
       <c r="P22">
-        <v>0.4144945736454198</v>
+        <v>0.4270222801886167</v>
       </c>
       <c r="Q22">
-        <v>65.96844985991467</v>
+        <v>5400.124981908494</v>
       </c>
       <c r="R22">
-        <v>65.96844985991467</v>
+        <v>48601.12483717644</v>
       </c>
       <c r="S22">
-        <v>0.0006783899533996676</v>
+        <v>0.04950500026355519</v>
       </c>
       <c r="T22">
-        <v>0.0006783899533996676</v>
+        <v>0.0495050002635552</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H23">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I23">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J23">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>190.742850569929</v>
+        <v>190.7767536666667</v>
       </c>
       <c r="N23">
-        <v>190.742850569929</v>
+        <v>572.3302610000001</v>
       </c>
       <c r="O23">
-        <v>0.4679390483574361</v>
+        <v>0.455015407928672</v>
       </c>
       <c r="P23">
-        <v>0.4679390483574361</v>
+        <v>0.4550154079286721</v>
       </c>
       <c r="Q23">
-        <v>74.47434927211096</v>
+        <v>5754.126155720919</v>
       </c>
       <c r="R23">
-        <v>74.47434927211096</v>
+        <v>51787.13540148827</v>
       </c>
       <c r="S23">
-        <v>0.000765860808302511</v>
+        <v>0.05275026370867815</v>
       </c>
       <c r="T23">
-        <v>0.000765860808302511</v>
+        <v>0.05275026370867816</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H24">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I24">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J24">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>47.6942095581033</v>
+        <v>49.049056</v>
       </c>
       <c r="N24">
-        <v>47.6942095581033</v>
+        <v>147.147168</v>
       </c>
       <c r="O24">
-        <v>0.1170056071097507</v>
+        <v>0.1169853024302498</v>
       </c>
       <c r="P24">
-        <v>0.1170056071097507</v>
+        <v>0.1169853024302498</v>
       </c>
       <c r="Q24">
-        <v>18.62190488542178</v>
+        <v>1479.396470579179</v>
       </c>
       <c r="R24">
-        <v>18.62190488542178</v>
+        <v>13314.56823521261</v>
       </c>
       <c r="S24">
-        <v>0.0001914993184508742</v>
+        <v>0.01356219030324026</v>
       </c>
       <c r="T24">
-        <v>0.0001914993184508742</v>
+        <v>0.01356219030324026</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H25">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I25">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J25">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.228583269452522</v>
+        <v>0.2716173333333333</v>
       </c>
       <c r="N25">
-        <v>0.228583269452522</v>
+        <v>0.814852</v>
       </c>
       <c r="O25">
-        <v>0.0005607708873933935</v>
+        <v>0.000647825635732887</v>
       </c>
       <c r="P25">
-        <v>0.0005607708873933935</v>
+        <v>0.0006478256357328872</v>
       </c>
       <c r="Q25">
-        <v>0.08924890341159648</v>
+        <v>8.192404850390222</v>
       </c>
       <c r="R25">
-        <v>0.08924890341159648</v>
+        <v>73.73164365351201</v>
       </c>
       <c r="S25">
-        <v>9.177956971087555E-07</v>
+        <v>7.510289218054084E-05</v>
       </c>
       <c r="T25">
-        <v>9.177956971087555E-07</v>
+        <v>7.510289218054087E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H26">
+        <v>315.250706</v>
+      </c>
+      <c r="I26">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J26">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1007803333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.302341</v>
+      </c>
+      <c r="O26">
+        <v>0.0002403678834108732</v>
+      </c>
+      <c r="P26">
+        <v>0.0002403678834108732</v>
+      </c>
+      <c r="Q26">
+        <v>10.59035707808289</v>
+      </c>
+      <c r="R26">
+        <v>95.313213702746</v>
+      </c>
+      <c r="S26">
+        <v>9.708583258685048E-05</v>
+      </c>
+      <c r="T26">
+        <v>9.708583258685049E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H27">
+        <v>315.250706</v>
+      </c>
+      <c r="I27">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J27">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.03723833333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.111715</v>
+      </c>
+      <c r="O27">
+        <v>8.881593331782885E-05</v>
+      </c>
+      <c r="P27">
+        <v>8.881593331782886E-05</v>
+      </c>
+      <c r="Q27">
+        <v>3.913136957865555</v>
+      </c>
+      <c r="R27">
+        <v>35.21823262079</v>
+      </c>
+      <c r="S27">
+        <v>3.587321530139808E-05</v>
+      </c>
+      <c r="T27">
+        <v>3.587321530139809E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H28">
+        <v>315.250706</v>
+      </c>
+      <c r="I28">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J28">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>179.0399246666667</v>
+      </c>
+      <c r="N28">
+        <v>537.119774</v>
+      </c>
+      <c r="O28">
+        <v>0.4270222801886167</v>
+      </c>
+      <c r="P28">
+        <v>0.4270222801886167</v>
+      </c>
+      <c r="Q28">
+        <v>18814.15421778449</v>
+      </c>
+      <c r="R28">
+        <v>169327.3879600604</v>
+      </c>
+      <c r="S28">
+        <v>0.172476509827152</v>
+      </c>
+      <c r="T28">
+        <v>0.172476509827152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H29">
+        <v>315.250706</v>
+      </c>
+      <c r="I29">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J29">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>190.7767536666667</v>
+      </c>
+      <c r="N29">
+        <v>572.3302610000001</v>
+      </c>
+      <c r="O29">
+        <v>0.455015407928672</v>
+      </c>
+      <c r="P29">
+        <v>0.4550154079286721</v>
+      </c>
+      <c r="Q29">
+        <v>20047.50209393492</v>
+      </c>
+      <c r="R29">
+        <v>180427.5188454143</v>
+      </c>
+      <c r="S29">
+        <v>0.1837830790525745</v>
+      </c>
+      <c r="T29">
+        <v>0.1837830790525746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H30">
+        <v>315.250706</v>
+      </c>
+      <c r="I30">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J30">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>49.049056</v>
+      </c>
+      <c r="N30">
+        <v>147.147168</v>
+      </c>
+      <c r="O30">
+        <v>0.1169853024302498</v>
+      </c>
+      <c r="P30">
+        <v>0.1169853024302498</v>
+      </c>
+      <c r="Q30">
+        <v>5154.249844211178</v>
+      </c>
+      <c r="R30">
+        <v>46388.2485979006</v>
+      </c>
+      <c r="S30">
+        <v>0.04725096932958864</v>
+      </c>
+      <c r="T30">
+        <v>0.04725096932958864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H31">
+        <v>315.250706</v>
+      </c>
+      <c r="I31">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J31">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.2716173333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.814852</v>
+      </c>
+      <c r="O31">
+        <v>0.000647825635732887</v>
+      </c>
+      <c r="P31">
+        <v>0.0006478256357328872</v>
+      </c>
+      <c r="Q31">
+        <v>28.54251869839022</v>
+      </c>
+      <c r="R31">
+        <v>256.882668285512</v>
+      </c>
+      <c r="S31">
+        <v>0.0002616601283155783</v>
+      </c>
+      <c r="T31">
+        <v>0.0002616601283155784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H32">
+        <v>1.186187</v>
+      </c>
+      <c r="I32">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J32">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.1007803333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.302341</v>
+      </c>
+      <c r="O32">
+        <v>0.0002403678834108732</v>
+      </c>
+      <c r="P32">
+        <v>0.0002403678834108732</v>
+      </c>
+      <c r="Q32">
+        <v>0.03984810708522223</v>
+      </c>
+      <c r="R32">
+        <v>0.358632963767</v>
+      </c>
+      <c r="S32">
+        <v>3.65302758429662E-07</v>
+      </c>
+      <c r="T32">
+        <v>3.653027584296621E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H33">
+        <v>1.186187</v>
+      </c>
+      <c r="I33">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J33">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.03723833333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.111715</v>
+      </c>
+      <c r="O33">
+        <v>8.881593331782885E-05</v>
+      </c>
+      <c r="P33">
+        <v>8.881593331782886E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.01472387563388889</v>
+      </c>
+      <c r="R33">
+        <v>0.132514880705</v>
+      </c>
+      <c r="S33">
+        <v>1.349793698438838E-07</v>
+      </c>
+      <c r="T33">
+        <v>1.349793698438839E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H34">
+        <v>1.186187</v>
+      </c>
+      <c r="I34">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J34">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>179.0399246666667</v>
+      </c>
+      <c r="N34">
+        <v>537.119774</v>
+      </c>
+      <c r="O34">
+        <v>0.4270222801886167</v>
+      </c>
+      <c r="P34">
+        <v>0.4270222801886167</v>
+      </c>
+      <c r="Q34">
+        <v>70.79161037352644</v>
+      </c>
+      <c r="R34">
+        <v>637.1244933617379</v>
+      </c>
+      <c r="S34">
+        <v>0.0006489736259697382</v>
+      </c>
+      <c r="T34">
+        <v>0.0006489736259697385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H35">
+        <v>1.186187</v>
+      </c>
+      <c r="I35">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J35">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>190.7767536666667</v>
+      </c>
+      <c r="N35">
+        <v>572.3302610000001</v>
+      </c>
+      <c r="O35">
+        <v>0.455015407928672</v>
+      </c>
+      <c r="P35">
+        <v>0.4550154079286721</v>
+      </c>
+      <c r="Q35">
+        <v>75.43230170053411</v>
+      </c>
+      <c r="R35">
+        <v>678.890715304807</v>
+      </c>
+      <c r="S35">
+        <v>0.0006915166089814758</v>
+      </c>
+      <c r="T35">
+        <v>0.0006915166089814761</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H36">
+        <v>1.186187</v>
+      </c>
+      <c r="I36">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J36">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>49.049056</v>
+      </c>
+      <c r="N36">
+        <v>147.147168</v>
+      </c>
+      <c r="O36">
+        <v>0.1169853024302498</v>
+      </c>
+      <c r="P36">
+        <v>0.1169853024302498</v>
+      </c>
+      <c r="Q36">
+        <v>19.39378419649067</v>
+      </c>
+      <c r="R36">
+        <v>174.544057768416</v>
+      </c>
+      <c r="S36">
+        <v>0.0001777901983704257</v>
+      </c>
+      <c r="T36">
+        <v>0.0001777901983704258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H37">
+        <v>1.186187</v>
+      </c>
+      <c r="I37">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J37">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.2716173333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.814852</v>
+      </c>
+      <c r="O37">
+        <v>0.000647825635732887</v>
+      </c>
+      <c r="P37">
+        <v>0.0006478256357328872</v>
+      </c>
+      <c r="Q37">
+        <v>0.1073963165915555</v>
+      </c>
+      <c r="R37">
+        <v>0.9665668493239999</v>
+      </c>
+      <c r="S37">
+        <v>9.845428946518232E-07</v>
+      </c>
+      <c r="T37">
+        <v>9.845428946518236E-07</v>
       </c>
     </row>
   </sheetData>
